--- a/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/2 PROCEDIMIENTOS  ANALITICOS/10 Inspección de Documentos e Instalaciones.xlsx
+++ b/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/2 PROCEDIMIENTOS  ANALITICOS/10 Inspección de Documentos e Instalaciones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base\2 ESTRATEGIA Y PLAN DE AUDITORIA\2 PROCEDIMIENTOS  ANALITICOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\2 PROCEDIMIENTOS  ANALITICOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B5EEC9-98EB-4EAB-B3EF-81D5CE395AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC288AF-6F10-424E-97B4-D1F2C098038A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
   <si>
     <t>Objetivo:</t>
   </si>
@@ -170,9 +170,6 @@
   </si>
   <si>
     <t>Observación e inspección de Documentos e Instalaciones Físicas</t>
-  </si>
-  <si>
-    <t>ENTIDAD XXXXXXXXXXXXXXXXXXXXX</t>
   </si>
   <si>
     <t>Del 01 de Enero al 31 de Diciembre de 2023</t>
@@ -391,14 +388,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1295,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1320,9 +1317,9 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="2:16" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E7" s="28" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
@@ -1335,30 +1332,30 @@
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="2:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="2:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E9" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
+      <c r="E9" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
@@ -1366,16 +1363,16 @@
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
     </row>
     <row r="14" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
@@ -2011,8 +2008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:Q184"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76:O86"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2025,17 +2022,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="27"/>
+      <c r="B3" s="29"/>
     </row>
     <row r="4" spans="2:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="27"/>
+      <c r="B4" s="29"/>
       <c r="M4" s="1"/>
       <c r="N4" s="26" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="27"/>
+      <c r="B5" s="29"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
@@ -2043,7 +2040,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="2:14" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B7" s="28" t="s">
         <v>44</v>
       </c>
@@ -2060,50 +2057,50 @@
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="2:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
       <c r="L10" s="4"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2130,167 +2127,167 @@
       <c r="B19" s="8"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
       <c r="Q26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
     </row>
     <row r="31" spans="2:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B31" s="20" t="s">
@@ -2298,167 +2295,167 @@
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
       <c r="Q39" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
@@ -2469,167 +2466,167 @@
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="27"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="29"/>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="27"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
       <c r="Q52" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="27"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="27"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="29"/>
     </row>
     <row r="58" spans="2:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="25" t="s">
@@ -2645,183 +2642,183 @@
       </c>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="27"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="27"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="29"/>
+      <c r="O62" s="29"/>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="27"/>
-      <c r="N63" s="27"/>
-      <c r="O63" s="27"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="29"/>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="27"/>
-      <c r="N64" s="27"/>
-      <c r="O64" s="27"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="29"/>
+      <c r="N64" s="29"/>
+      <c r="O64" s="29"/>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="27"/>
-      <c r="M65" s="27"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="27"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="29"/>
+      <c r="O65" s="29"/>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="27"/>
-      <c r="M66" s="27"/>
-      <c r="N66" s="27"/>
-      <c r="O66" s="27"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="29"/>
+      <c r="N66" s="29"/>
+      <c r="O66" s="29"/>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="27"/>
-      <c r="M67" s="27"/>
-      <c r="N67" s="27"/>
-      <c r="O67" s="27"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="29"/>
+      <c r="O67" s="29"/>
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="27"/>
-      <c r="M68" s="27"/>
-      <c r="N68" s="27"/>
-      <c r="O68" s="27"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="29"/>
+      <c r="O68" s="29"/>
       <c r="Q68" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="27"/>
-      <c r="L69" s="27"/>
-      <c r="M69" s="27"/>
-      <c r="N69" s="27"/>
-      <c r="O69" s="27"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="29"/>
+      <c r="M69" s="29"/>
+      <c r="N69" s="29"/>
+      <c r="O69" s="29"/>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="27"/>
-      <c r="M70" s="27"/>
-      <c r="N70" s="27"/>
-      <c r="O70" s="27"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="29"/>
+      <c r="O70" s="29"/>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="27"/>
-      <c r="M71" s="27"/>
-      <c r="N71" s="27"/>
-      <c r="O71" s="27"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="29"/>
+      <c r="O71" s="29"/>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="27"/>
-      <c r="M72" s="27"/>
-      <c r="N72" s="27"/>
-      <c r="O72" s="27"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="29"/>
+      <c r="M72" s="29"/>
+      <c r="N72" s="29"/>
+      <c r="O72" s="29"/>
     </row>
     <row r="74" spans="2:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B74" s="20" t="s">
@@ -2829,183 +2826,183 @@
       </c>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="27"/>
-      <c r="L76" s="27"/>
-      <c r="M76" s="27"/>
-      <c r="N76" s="27"/>
-      <c r="O76" s="27"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="29"/>
+      <c r="M76" s="29"/>
+      <c r="N76" s="29"/>
+      <c r="O76" s="29"/>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="27"/>
-      <c r="M77" s="27"/>
-      <c r="N77" s="27"/>
-      <c r="O77" s="27"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="29"/>
+      <c r="M77" s="29"/>
+      <c r="N77" s="29"/>
+      <c r="O77" s="29"/>
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="27"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="27"/>
-      <c r="M78" s="27"/>
-      <c r="N78" s="27"/>
-      <c r="O78" s="27"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="29"/>
+      <c r="M78" s="29"/>
+      <c r="N78" s="29"/>
+      <c r="O78" s="29"/>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="27"/>
-      <c r="K79" s="27"/>
-      <c r="L79" s="27"/>
-      <c r="M79" s="27"/>
-      <c r="N79" s="27"/>
-      <c r="O79" s="27"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="29"/>
+      <c r="M79" s="29"/>
+      <c r="N79" s="29"/>
+      <c r="O79" s="29"/>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="27"/>
-      <c r="L80" s="27"/>
-      <c r="M80" s="27"/>
-      <c r="N80" s="27"/>
-      <c r="O80" s="27"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="29"/>
+      <c r="M80" s="29"/>
+      <c r="N80" s="29"/>
+      <c r="O80" s="29"/>
     </row>
     <row r="81" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="27"/>
-      <c r="M81" s="27"/>
-      <c r="N81" s="27"/>
-      <c r="O81" s="27"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
+      <c r="K81" s="29"/>
+      <c r="L81" s="29"/>
+      <c r="M81" s="29"/>
+      <c r="N81" s="29"/>
+      <c r="O81" s="29"/>
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B82" s="27"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="27"/>
-      <c r="K82" s="27"/>
-      <c r="L82" s="27"/>
-      <c r="M82" s="27"/>
-      <c r="N82" s="27"/>
-      <c r="O82" s="27"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="29"/>
+      <c r="K82" s="29"/>
+      <c r="L82" s="29"/>
+      <c r="M82" s="29"/>
+      <c r="N82" s="29"/>
+      <c r="O82" s="29"/>
       <c r="Q82" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="27"/>
-      <c r="K83" s="27"/>
-      <c r="L83" s="27"/>
-      <c r="M83" s="27"/>
-      <c r="N83" s="27"/>
-      <c r="O83" s="27"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="29"/>
+      <c r="K83" s="29"/>
+      <c r="L83" s="29"/>
+      <c r="M83" s="29"/>
+      <c r="N83" s="29"/>
+      <c r="O83" s="29"/>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B84" s="27"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="27"/>
-      <c r="L84" s="27"/>
-      <c r="M84" s="27"/>
-      <c r="N84" s="27"/>
-      <c r="O84" s="27"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="29"/>
+      <c r="L84" s="29"/>
+      <c r="M84" s="29"/>
+      <c r="N84" s="29"/>
+      <c r="O84" s="29"/>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B85" s="27"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="27"/>
-      <c r="K85" s="27"/>
-      <c r="L85" s="27"/>
-      <c r="M85" s="27"/>
-      <c r="N85" s="27"/>
-      <c r="O85" s="27"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="29"/>
+      <c r="L85" s="29"/>
+      <c r="M85" s="29"/>
+      <c r="N85" s="29"/>
+      <c r="O85" s="29"/>
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B86" s="27"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="27"/>
-      <c r="J86" s="27"/>
-      <c r="K86" s="27"/>
-      <c r="L86" s="27"/>
-      <c r="M86" s="27"/>
-      <c r="N86" s="27"/>
-      <c r="O86" s="27"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="29"/>
+      <c r="K86" s="29"/>
+      <c r="L86" s="29"/>
+      <c r="M86" s="29"/>
+      <c r="N86" s="29"/>
+      <c r="O86" s="29"/>
     </row>
     <row r="88" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="25" t="s">
@@ -3021,231 +3018,231 @@
       </c>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B92" s="27"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="27"/>
-      <c r="J92" s="27"/>
-      <c r="K92" s="27"/>
-      <c r="L92" s="27"/>
-      <c r="M92" s="27"/>
-      <c r="N92" s="27"/>
-      <c r="O92" s="27"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="29"/>
+      <c r="J92" s="29"/>
+      <c r="K92" s="29"/>
+      <c r="L92" s="29"/>
+      <c r="M92" s="29"/>
+      <c r="N92" s="29"/>
+      <c r="O92" s="29"/>
     </row>
     <row r="93" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B93" s="27"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="27"/>
-      <c r="J93" s="27"/>
-      <c r="K93" s="27"/>
-      <c r="L93" s="27"/>
-      <c r="M93" s="27"/>
-      <c r="N93" s="27"/>
-      <c r="O93" s="27"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
+      <c r="J93" s="29"/>
+      <c r="K93" s="29"/>
+      <c r="L93" s="29"/>
+      <c r="M93" s="29"/>
+      <c r="N93" s="29"/>
+      <c r="O93" s="29"/>
     </row>
     <row r="94" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B94" s="27"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="27"/>
-      <c r="J94" s="27"/>
-      <c r="K94" s="27"/>
-      <c r="L94" s="27"/>
-      <c r="M94" s="27"/>
-      <c r="N94" s="27"/>
-      <c r="O94" s="27"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="29"/>
+      <c r="J94" s="29"/>
+      <c r="K94" s="29"/>
+      <c r="L94" s="29"/>
+      <c r="M94" s="29"/>
+      <c r="N94" s="29"/>
+      <c r="O94" s="29"/>
     </row>
     <row r="95" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B95" s="27"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="27"/>
-      <c r="I95" s="27"/>
-      <c r="J95" s="27"/>
-      <c r="K95" s="27"/>
-      <c r="L95" s="27"/>
-      <c r="M95" s="27"/>
-      <c r="N95" s="27"/>
-      <c r="O95" s="27"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="29"/>
+      <c r="J95" s="29"/>
+      <c r="K95" s="29"/>
+      <c r="L95" s="29"/>
+      <c r="M95" s="29"/>
+      <c r="N95" s="29"/>
+      <c r="O95" s="29"/>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B96" s="27"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="27"/>
-      <c r="J96" s="27"/>
-      <c r="K96" s="27"/>
-      <c r="L96" s="27"/>
-      <c r="M96" s="27"/>
-      <c r="N96" s="27"/>
-      <c r="O96" s="27"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="29"/>
+      <c r="J96" s="29"/>
+      <c r="K96" s="29"/>
+      <c r="L96" s="29"/>
+      <c r="M96" s="29"/>
+      <c r="N96" s="29"/>
+      <c r="O96" s="29"/>
     </row>
     <row r="97" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B97" s="27"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="27"/>
-      <c r="J97" s="27"/>
-      <c r="K97" s="27"/>
-      <c r="L97" s="27"/>
-      <c r="M97" s="27"/>
-      <c r="N97" s="27"/>
-      <c r="O97" s="27"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="29"/>
+      <c r="I97" s="29"/>
+      <c r="J97" s="29"/>
+      <c r="K97" s="29"/>
+      <c r="L97" s="29"/>
+      <c r="M97" s="29"/>
+      <c r="N97" s="29"/>
+      <c r="O97" s="29"/>
     </row>
     <row r="98" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B98" s="27"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="27"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="27"/>
-      <c r="I98" s="27"/>
-      <c r="J98" s="27"/>
-      <c r="K98" s="27"/>
-      <c r="L98" s="27"/>
-      <c r="M98" s="27"/>
-      <c r="N98" s="27"/>
-      <c r="O98" s="27"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="29"/>
+      <c r="J98" s="29"/>
+      <c r="K98" s="29"/>
+      <c r="L98" s="29"/>
+      <c r="M98" s="29"/>
+      <c r="N98" s="29"/>
+      <c r="O98" s="29"/>
       <c r="Q98" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="99" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B99" s="27"/>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="27"/>
-      <c r="I99" s="27"/>
-      <c r="J99" s="27"/>
-      <c r="K99" s="27"/>
-      <c r="L99" s="27"/>
-      <c r="M99" s="27"/>
-      <c r="N99" s="27"/>
-      <c r="O99" s="27"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="29"/>
+      <c r="K99" s="29"/>
+      <c r="L99" s="29"/>
+      <c r="M99" s="29"/>
+      <c r="N99" s="29"/>
+      <c r="O99" s="29"/>
     </row>
     <row r="100" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B100" s="27"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
-      <c r="G100" s="27"/>
-      <c r="H100" s="27"/>
-      <c r="I100" s="27"/>
-      <c r="J100" s="27"/>
-      <c r="K100" s="27"/>
-      <c r="L100" s="27"/>
-      <c r="M100" s="27"/>
-      <c r="N100" s="27"/>
-      <c r="O100" s="27"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="29"/>
+      <c r="J100" s="29"/>
+      <c r="K100" s="29"/>
+      <c r="L100" s="29"/>
+      <c r="M100" s="29"/>
+      <c r="N100" s="29"/>
+      <c r="O100" s="29"/>
     </row>
     <row r="101" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="27"/>
-      <c r="G101" s="27"/>
-      <c r="H101" s="27"/>
-      <c r="I101" s="27"/>
-      <c r="J101" s="27"/>
-      <c r="K101" s="27"/>
-      <c r="L101" s="27"/>
-      <c r="M101" s="27"/>
-      <c r="N101" s="27"/>
-      <c r="O101" s="27"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="29"/>
+      <c r="J101" s="29"/>
+      <c r="K101" s="29"/>
+      <c r="L101" s="29"/>
+      <c r="M101" s="29"/>
+      <c r="N101" s="29"/>
+      <c r="O101" s="29"/>
     </row>
     <row r="102" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B102" s="27"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="27"/>
-      <c r="J102" s="27"/>
-      <c r="K102" s="27"/>
-      <c r="L102" s="27"/>
-      <c r="M102" s="27"/>
-      <c r="N102" s="27"/>
-      <c r="O102" s="27"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="29"/>
+      <c r="I102" s="29"/>
+      <c r="J102" s="29"/>
+      <c r="K102" s="29"/>
+      <c r="L102" s="29"/>
+      <c r="M102" s="29"/>
+      <c r="N102" s="29"/>
+      <c r="O102" s="29"/>
     </row>
     <row r="103" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B103" s="27"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="27"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="27"/>
-      <c r="K103" s="27"/>
-      <c r="L103" s="27"/>
-      <c r="M103" s="27"/>
-      <c r="N103" s="27"/>
-      <c r="O103" s="27"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="29"/>
+      <c r="I103" s="29"/>
+      <c r="J103" s="29"/>
+      <c r="K103" s="29"/>
+      <c r="L103" s="29"/>
+      <c r="M103" s="29"/>
+      <c r="N103" s="29"/>
+      <c r="O103" s="29"/>
     </row>
     <row r="104" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B104" s="27"/>
-      <c r="C104" s="27"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="27"/>
-      <c r="G104" s="27"/>
-      <c r="H104" s="27"/>
-      <c r="I104" s="27"/>
-      <c r="J104" s="27"/>
-      <c r="K104" s="27"/>
-      <c r="L104" s="27"/>
-      <c r="M104" s="27"/>
-      <c r="N104" s="27"/>
-      <c r="O104" s="27"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="29"/>
+      <c r="H104" s="29"/>
+      <c r="I104" s="29"/>
+      <c r="J104" s="29"/>
+      <c r="K104" s="29"/>
+      <c r="L104" s="29"/>
+      <c r="M104" s="29"/>
+      <c r="N104" s="29"/>
+      <c r="O104" s="29"/>
     </row>
     <row r="105" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B105" s="27"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="27"/>
-      <c r="G105" s="27"/>
-      <c r="H105" s="27"/>
-      <c r="I105" s="27"/>
-      <c r="J105" s="27"/>
-      <c r="K105" s="27"/>
-      <c r="L105" s="27"/>
-      <c r="M105" s="27"/>
-      <c r="N105" s="27"/>
-      <c r="O105" s="27"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="29"/>
+      <c r="H105" s="29"/>
+      <c r="I105" s="29"/>
+      <c r="J105" s="29"/>
+      <c r="K105" s="29"/>
+      <c r="L105" s="29"/>
+      <c r="M105" s="29"/>
+      <c r="N105" s="29"/>
+      <c r="O105" s="29"/>
     </row>
     <row r="107" spans="2:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B107" s="20" t="s">
@@ -3253,215 +3250,215 @@
       </c>
     </row>
     <row r="109" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B109" s="27"/>
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27"/>
-      <c r="G109" s="27"/>
-      <c r="H109" s="27"/>
-      <c r="I109" s="27"/>
-      <c r="J109" s="27"/>
-      <c r="K109" s="27"/>
-      <c r="L109" s="27"/>
-      <c r="M109" s="27"/>
-      <c r="N109" s="27"/>
-      <c r="O109" s="27"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="29"/>
+      <c r="K109" s="29"/>
+      <c r="L109" s="29"/>
+      <c r="M109" s="29"/>
+      <c r="N109" s="29"/>
+      <c r="O109" s="29"/>
     </row>
     <row r="110" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B110" s="27"/>
-      <c r="C110" s="27"/>
-      <c r="D110" s="27"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="27"/>
-      <c r="G110" s="27"/>
-      <c r="H110" s="27"/>
-      <c r="I110" s="27"/>
-      <c r="J110" s="27"/>
-      <c r="K110" s="27"/>
-      <c r="L110" s="27"/>
-      <c r="M110" s="27"/>
-      <c r="N110" s="27"/>
-      <c r="O110" s="27"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="29"/>
+      <c r="H110" s="29"/>
+      <c r="I110" s="29"/>
+      <c r="J110" s="29"/>
+      <c r="K110" s="29"/>
+      <c r="L110" s="29"/>
+      <c r="M110" s="29"/>
+      <c r="N110" s="29"/>
+      <c r="O110" s="29"/>
     </row>
     <row r="111" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B111" s="27"/>
-      <c r="C111" s="27"/>
-      <c r="D111" s="27"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="27"/>
-      <c r="G111" s="27"/>
-      <c r="H111" s="27"/>
-      <c r="I111" s="27"/>
-      <c r="J111" s="27"/>
-      <c r="K111" s="27"/>
-      <c r="L111" s="27"/>
-      <c r="M111" s="27"/>
-      <c r="N111" s="27"/>
-      <c r="O111" s="27"/>
+      <c r="B111" s="29"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="29"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="29"/>
+      <c r="H111" s="29"/>
+      <c r="I111" s="29"/>
+      <c r="J111" s="29"/>
+      <c r="K111" s="29"/>
+      <c r="L111" s="29"/>
+      <c r="M111" s="29"/>
+      <c r="N111" s="29"/>
+      <c r="O111" s="29"/>
     </row>
     <row r="112" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B112" s="27"/>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="27"/>
-      <c r="K112" s="27"/>
-      <c r="L112" s="27"/>
-      <c r="M112" s="27"/>
-      <c r="N112" s="27"/>
-      <c r="O112" s="27"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="29"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="29"/>
+      <c r="H112" s="29"/>
+      <c r="I112" s="29"/>
+      <c r="J112" s="29"/>
+      <c r="K112" s="29"/>
+      <c r="L112" s="29"/>
+      <c r="M112" s="29"/>
+      <c r="N112" s="29"/>
+      <c r="O112" s="29"/>
     </row>
     <row r="113" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B113" s="27"/>
-      <c r="C113" s="27"/>
-      <c r="D113" s="27"/>
-      <c r="E113" s="27"/>
-      <c r="F113" s="27"/>
-      <c r="G113" s="27"/>
-      <c r="H113" s="27"/>
-      <c r="I113" s="27"/>
-      <c r="J113" s="27"/>
-      <c r="K113" s="27"/>
-      <c r="L113" s="27"/>
-      <c r="M113" s="27"/>
-      <c r="N113" s="27"/>
-      <c r="O113" s="27"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="29"/>
+      <c r="H113" s="29"/>
+      <c r="I113" s="29"/>
+      <c r="J113" s="29"/>
+      <c r="K113" s="29"/>
+      <c r="L113" s="29"/>
+      <c r="M113" s="29"/>
+      <c r="N113" s="29"/>
+      <c r="O113" s="29"/>
     </row>
     <row r="114" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B114" s="27"/>
-      <c r="C114" s="27"/>
-      <c r="D114" s="27"/>
-      <c r="E114" s="27"/>
-      <c r="F114" s="27"/>
-      <c r="G114" s="27"/>
-      <c r="H114" s="27"/>
-      <c r="I114" s="27"/>
-      <c r="J114" s="27"/>
-      <c r="K114" s="27"/>
-      <c r="L114" s="27"/>
-      <c r="M114" s="27"/>
-      <c r="N114" s="27"/>
-      <c r="O114" s="27"/>
+      <c r="B114" s="29"/>
+      <c r="C114" s="29"/>
+      <c r="D114" s="29"/>
+      <c r="E114" s="29"/>
+      <c r="F114" s="29"/>
+      <c r="G114" s="29"/>
+      <c r="H114" s="29"/>
+      <c r="I114" s="29"/>
+      <c r="J114" s="29"/>
+      <c r="K114" s="29"/>
+      <c r="L114" s="29"/>
+      <c r="M114" s="29"/>
+      <c r="N114" s="29"/>
+      <c r="O114" s="29"/>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B115" s="27"/>
-      <c r="C115" s="27"/>
-      <c r="D115" s="27"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="27"/>
-      <c r="G115" s="27"/>
-      <c r="H115" s="27"/>
-      <c r="I115" s="27"/>
-      <c r="J115" s="27"/>
-      <c r="K115" s="27"/>
-      <c r="L115" s="27"/>
-      <c r="M115" s="27"/>
-      <c r="N115" s="27"/>
-      <c r="O115" s="27"/>
+      <c r="B115" s="29"/>
+      <c r="C115" s="29"/>
+      <c r="D115" s="29"/>
+      <c r="E115" s="29"/>
+      <c r="F115" s="29"/>
+      <c r="G115" s="29"/>
+      <c r="H115" s="29"/>
+      <c r="I115" s="29"/>
+      <c r="J115" s="29"/>
+      <c r="K115" s="29"/>
+      <c r="L115" s="29"/>
+      <c r="M115" s="29"/>
+      <c r="N115" s="29"/>
+      <c r="O115" s="29"/>
     </row>
     <row r="116" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B116" s="27"/>
-      <c r="C116" s="27"/>
-      <c r="D116" s="27"/>
-      <c r="E116" s="27"/>
-      <c r="F116" s="27"/>
-      <c r="G116" s="27"/>
-      <c r="H116" s="27"/>
-      <c r="I116" s="27"/>
-      <c r="J116" s="27"/>
-      <c r="K116" s="27"/>
-      <c r="L116" s="27"/>
-      <c r="M116" s="27"/>
-      <c r="N116" s="27"/>
-      <c r="O116" s="27"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="29"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="29"/>
+      <c r="H116" s="29"/>
+      <c r="I116" s="29"/>
+      <c r="J116" s="29"/>
+      <c r="K116" s="29"/>
+      <c r="L116" s="29"/>
+      <c r="M116" s="29"/>
+      <c r="N116" s="29"/>
+      <c r="O116" s="29"/>
       <c r="Q116" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B117" s="27"/>
-      <c r="C117" s="27"/>
-      <c r="D117" s="27"/>
-      <c r="E117" s="27"/>
-      <c r="F117" s="27"/>
-      <c r="G117" s="27"/>
-      <c r="H117" s="27"/>
-      <c r="I117" s="27"/>
-      <c r="J117" s="27"/>
-      <c r="K117" s="27"/>
-      <c r="L117" s="27"/>
-      <c r="M117" s="27"/>
-      <c r="N117" s="27"/>
-      <c r="O117" s="27"/>
+      <c r="B117" s="29"/>
+      <c r="C117" s="29"/>
+      <c r="D117" s="29"/>
+      <c r="E117" s="29"/>
+      <c r="F117" s="29"/>
+      <c r="G117" s="29"/>
+      <c r="H117" s="29"/>
+      <c r="I117" s="29"/>
+      <c r="J117" s="29"/>
+      <c r="K117" s="29"/>
+      <c r="L117" s="29"/>
+      <c r="M117" s="29"/>
+      <c r="N117" s="29"/>
+      <c r="O117" s="29"/>
     </row>
     <row r="118" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B118" s="27"/>
-      <c r="C118" s="27"/>
-      <c r="D118" s="27"/>
-      <c r="E118" s="27"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="27"/>
-      <c r="H118" s="27"/>
-      <c r="I118" s="27"/>
-      <c r="J118" s="27"/>
-      <c r="K118" s="27"/>
-      <c r="L118" s="27"/>
-      <c r="M118" s="27"/>
-      <c r="N118" s="27"/>
-      <c r="O118" s="27"/>
+      <c r="B118" s="29"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="29"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="29"/>
+      <c r="H118" s="29"/>
+      <c r="I118" s="29"/>
+      <c r="J118" s="29"/>
+      <c r="K118" s="29"/>
+      <c r="L118" s="29"/>
+      <c r="M118" s="29"/>
+      <c r="N118" s="29"/>
+      <c r="O118" s="29"/>
     </row>
     <row r="119" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B119" s="27"/>
-      <c r="C119" s="27"/>
-      <c r="D119" s="27"/>
-      <c r="E119" s="27"/>
-      <c r="F119" s="27"/>
-      <c r="G119" s="27"/>
-      <c r="H119" s="27"/>
-      <c r="I119" s="27"/>
-      <c r="J119" s="27"/>
-      <c r="K119" s="27"/>
-      <c r="L119" s="27"/>
-      <c r="M119" s="27"/>
-      <c r="N119" s="27"/>
-      <c r="O119" s="27"/>
+      <c r="B119" s="29"/>
+      <c r="C119" s="29"/>
+      <c r="D119" s="29"/>
+      <c r="E119" s="29"/>
+      <c r="F119" s="29"/>
+      <c r="G119" s="29"/>
+      <c r="H119" s="29"/>
+      <c r="I119" s="29"/>
+      <c r="J119" s="29"/>
+      <c r="K119" s="29"/>
+      <c r="L119" s="29"/>
+      <c r="M119" s="29"/>
+      <c r="N119" s="29"/>
+      <c r="O119" s="29"/>
     </row>
     <row r="120" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B120" s="27"/>
-      <c r="C120" s="27"/>
-      <c r="D120" s="27"/>
-      <c r="E120" s="27"/>
-      <c r="F120" s="27"/>
-      <c r="G120" s="27"/>
-      <c r="H120" s="27"/>
-      <c r="I120" s="27"/>
-      <c r="J120" s="27"/>
-      <c r="K120" s="27"/>
-      <c r="L120" s="27"/>
-      <c r="M120" s="27"/>
-      <c r="N120" s="27"/>
-      <c r="O120" s="27"/>
+      <c r="B120" s="29"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="29"/>
+      <c r="E120" s="29"/>
+      <c r="F120" s="29"/>
+      <c r="G120" s="29"/>
+      <c r="H120" s="29"/>
+      <c r="I120" s="29"/>
+      <c r="J120" s="29"/>
+      <c r="K120" s="29"/>
+      <c r="L120" s="29"/>
+      <c r="M120" s="29"/>
+      <c r="N120" s="29"/>
+      <c r="O120" s="29"/>
     </row>
     <row r="121" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B121" s="27"/>
-      <c r="C121" s="27"/>
-      <c r="D121" s="27"/>
-      <c r="E121" s="27"/>
-      <c r="F121" s="27"/>
-      <c r="G121" s="27"/>
-      <c r="H121" s="27"/>
-      <c r="I121" s="27"/>
-      <c r="J121" s="27"/>
-      <c r="K121" s="27"/>
-      <c r="L121" s="27"/>
-      <c r="M121" s="27"/>
-      <c r="N121" s="27"/>
-      <c r="O121" s="27"/>
+      <c r="B121" s="29"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="29"/>
+      <c r="H121" s="29"/>
+      <c r="I121" s="29"/>
+      <c r="J121" s="29"/>
+      <c r="K121" s="29"/>
+      <c r="L121" s="29"/>
+      <c r="M121" s="29"/>
+      <c r="N121" s="29"/>
+      <c r="O121" s="29"/>
     </row>
     <row r="123" spans="2:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B123" s="20" t="s">
@@ -3469,215 +3466,215 @@
       </c>
     </row>
     <row r="125" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B125" s="27"/>
-      <c r="C125" s="27"/>
-      <c r="D125" s="27"/>
-      <c r="E125" s="27"/>
-      <c r="F125" s="27"/>
-      <c r="G125" s="27"/>
-      <c r="H125" s="27"/>
-      <c r="I125" s="27"/>
-      <c r="J125" s="27"/>
-      <c r="K125" s="27"/>
-      <c r="L125" s="27"/>
-      <c r="M125" s="27"/>
-      <c r="N125" s="27"/>
-      <c r="O125" s="27"/>
+      <c r="B125" s="29"/>
+      <c r="C125" s="29"/>
+      <c r="D125" s="29"/>
+      <c r="E125" s="29"/>
+      <c r="F125" s="29"/>
+      <c r="G125" s="29"/>
+      <c r="H125" s="29"/>
+      <c r="I125" s="29"/>
+      <c r="J125" s="29"/>
+      <c r="K125" s="29"/>
+      <c r="L125" s="29"/>
+      <c r="M125" s="29"/>
+      <c r="N125" s="29"/>
+      <c r="O125" s="29"/>
     </row>
     <row r="126" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B126" s="27"/>
-      <c r="C126" s="27"/>
-      <c r="D126" s="27"/>
-      <c r="E126" s="27"/>
-      <c r="F126" s="27"/>
-      <c r="G126" s="27"/>
-      <c r="H126" s="27"/>
-      <c r="I126" s="27"/>
-      <c r="J126" s="27"/>
-      <c r="K126" s="27"/>
-      <c r="L126" s="27"/>
-      <c r="M126" s="27"/>
-      <c r="N126" s="27"/>
-      <c r="O126" s="27"/>
+      <c r="B126" s="29"/>
+      <c r="C126" s="29"/>
+      <c r="D126" s="29"/>
+      <c r="E126" s="29"/>
+      <c r="F126" s="29"/>
+      <c r="G126" s="29"/>
+      <c r="H126" s="29"/>
+      <c r="I126" s="29"/>
+      <c r="J126" s="29"/>
+      <c r="K126" s="29"/>
+      <c r="L126" s="29"/>
+      <c r="M126" s="29"/>
+      <c r="N126" s="29"/>
+      <c r="O126" s="29"/>
     </row>
     <row r="127" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B127" s="27"/>
-      <c r="C127" s="27"/>
-      <c r="D127" s="27"/>
-      <c r="E127" s="27"/>
-      <c r="F127" s="27"/>
-      <c r="G127" s="27"/>
-      <c r="H127" s="27"/>
-      <c r="I127" s="27"/>
-      <c r="J127" s="27"/>
-      <c r="K127" s="27"/>
-      <c r="L127" s="27"/>
-      <c r="M127" s="27"/>
-      <c r="N127" s="27"/>
-      <c r="O127" s="27"/>
+      <c r="B127" s="29"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="29"/>
+      <c r="F127" s="29"/>
+      <c r="G127" s="29"/>
+      <c r="H127" s="29"/>
+      <c r="I127" s="29"/>
+      <c r="J127" s="29"/>
+      <c r="K127" s="29"/>
+      <c r="L127" s="29"/>
+      <c r="M127" s="29"/>
+      <c r="N127" s="29"/>
+      <c r="O127" s="29"/>
     </row>
     <row r="128" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B128" s="27"/>
-      <c r="C128" s="27"/>
-      <c r="D128" s="27"/>
-      <c r="E128" s="27"/>
-      <c r="F128" s="27"/>
-      <c r="G128" s="27"/>
-      <c r="H128" s="27"/>
-      <c r="I128" s="27"/>
-      <c r="J128" s="27"/>
-      <c r="K128" s="27"/>
-      <c r="L128" s="27"/>
-      <c r="M128" s="27"/>
-      <c r="N128" s="27"/>
-      <c r="O128" s="27"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="29"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="29"/>
+      <c r="H128" s="29"/>
+      <c r="I128" s="29"/>
+      <c r="J128" s="29"/>
+      <c r="K128" s="29"/>
+      <c r="L128" s="29"/>
+      <c r="M128" s="29"/>
+      <c r="N128" s="29"/>
+      <c r="O128" s="29"/>
     </row>
     <row r="129" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B129" s="27"/>
-      <c r="C129" s="27"/>
-      <c r="D129" s="27"/>
-      <c r="E129" s="27"/>
-      <c r="F129" s="27"/>
-      <c r="G129" s="27"/>
-      <c r="H129" s="27"/>
-      <c r="I129" s="27"/>
-      <c r="J129" s="27"/>
-      <c r="K129" s="27"/>
-      <c r="L129" s="27"/>
-      <c r="M129" s="27"/>
-      <c r="N129" s="27"/>
-      <c r="O129" s="27"/>
+      <c r="B129" s="29"/>
+      <c r="C129" s="29"/>
+      <c r="D129" s="29"/>
+      <c r="E129" s="29"/>
+      <c r="F129" s="29"/>
+      <c r="G129" s="29"/>
+      <c r="H129" s="29"/>
+      <c r="I129" s="29"/>
+      <c r="J129" s="29"/>
+      <c r="K129" s="29"/>
+      <c r="L129" s="29"/>
+      <c r="M129" s="29"/>
+      <c r="N129" s="29"/>
+      <c r="O129" s="29"/>
     </row>
     <row r="130" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B130" s="27"/>
-      <c r="C130" s="27"/>
-      <c r="D130" s="27"/>
-      <c r="E130" s="27"/>
-      <c r="F130" s="27"/>
-      <c r="G130" s="27"/>
-      <c r="H130" s="27"/>
-      <c r="I130" s="27"/>
-      <c r="J130" s="27"/>
-      <c r="K130" s="27"/>
-      <c r="L130" s="27"/>
-      <c r="M130" s="27"/>
-      <c r="N130" s="27"/>
-      <c r="O130" s="27"/>
+      <c r="B130" s="29"/>
+      <c r="C130" s="29"/>
+      <c r="D130" s="29"/>
+      <c r="E130" s="29"/>
+      <c r="F130" s="29"/>
+      <c r="G130" s="29"/>
+      <c r="H130" s="29"/>
+      <c r="I130" s="29"/>
+      <c r="J130" s="29"/>
+      <c r="K130" s="29"/>
+      <c r="L130" s="29"/>
+      <c r="M130" s="29"/>
+      <c r="N130" s="29"/>
+      <c r="O130" s="29"/>
     </row>
     <row r="131" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B131" s="27"/>
-      <c r="C131" s="27"/>
-      <c r="D131" s="27"/>
-      <c r="E131" s="27"/>
-      <c r="F131" s="27"/>
-      <c r="G131" s="27"/>
-      <c r="H131" s="27"/>
-      <c r="I131" s="27"/>
-      <c r="J131" s="27"/>
-      <c r="K131" s="27"/>
-      <c r="L131" s="27"/>
-      <c r="M131" s="27"/>
-      <c r="N131" s="27"/>
-      <c r="O131" s="27"/>
+      <c r="B131" s="29"/>
+      <c r="C131" s="29"/>
+      <c r="D131" s="29"/>
+      <c r="E131" s="29"/>
+      <c r="F131" s="29"/>
+      <c r="G131" s="29"/>
+      <c r="H131" s="29"/>
+      <c r="I131" s="29"/>
+      <c r="J131" s="29"/>
+      <c r="K131" s="29"/>
+      <c r="L131" s="29"/>
+      <c r="M131" s="29"/>
+      <c r="N131" s="29"/>
+      <c r="O131" s="29"/>
     </row>
     <row r="132" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B132" s="27"/>
-      <c r="C132" s="27"/>
-      <c r="D132" s="27"/>
-      <c r="E132" s="27"/>
-      <c r="F132" s="27"/>
-      <c r="G132" s="27"/>
-      <c r="H132" s="27"/>
-      <c r="I132" s="27"/>
-      <c r="J132" s="27"/>
-      <c r="K132" s="27"/>
-      <c r="L132" s="27"/>
-      <c r="M132" s="27"/>
-      <c r="N132" s="27"/>
-      <c r="O132" s="27"/>
+      <c r="B132" s="29"/>
+      <c r="C132" s="29"/>
+      <c r="D132" s="29"/>
+      <c r="E132" s="29"/>
+      <c r="F132" s="29"/>
+      <c r="G132" s="29"/>
+      <c r="H132" s="29"/>
+      <c r="I132" s="29"/>
+      <c r="J132" s="29"/>
+      <c r="K132" s="29"/>
+      <c r="L132" s="29"/>
+      <c r="M132" s="29"/>
+      <c r="N132" s="29"/>
+      <c r="O132" s="29"/>
     </row>
     <row r="133" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B133" s="27"/>
-      <c r="C133" s="27"/>
-      <c r="D133" s="27"/>
-      <c r="E133" s="27"/>
-      <c r="F133" s="27"/>
-      <c r="G133" s="27"/>
-      <c r="H133" s="27"/>
-      <c r="I133" s="27"/>
-      <c r="J133" s="27"/>
-      <c r="K133" s="27"/>
-      <c r="L133" s="27"/>
-      <c r="M133" s="27"/>
-      <c r="N133" s="27"/>
-      <c r="O133" s="27"/>
+      <c r="B133" s="29"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="29"/>
+      <c r="F133" s="29"/>
+      <c r="G133" s="29"/>
+      <c r="H133" s="29"/>
+      <c r="I133" s="29"/>
+      <c r="J133" s="29"/>
+      <c r="K133" s="29"/>
+      <c r="L133" s="29"/>
+      <c r="M133" s="29"/>
+      <c r="N133" s="29"/>
+      <c r="O133" s="29"/>
       <c r="Q133" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="134" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B134" s="27"/>
-      <c r="C134" s="27"/>
-      <c r="D134" s="27"/>
-      <c r="E134" s="27"/>
-      <c r="F134" s="27"/>
-      <c r="G134" s="27"/>
-      <c r="H134" s="27"/>
-      <c r="I134" s="27"/>
-      <c r="J134" s="27"/>
-      <c r="K134" s="27"/>
-      <c r="L134" s="27"/>
-      <c r="M134" s="27"/>
-      <c r="N134" s="27"/>
-      <c r="O134" s="27"/>
+      <c r="B134" s="29"/>
+      <c r="C134" s="29"/>
+      <c r="D134" s="29"/>
+      <c r="E134" s="29"/>
+      <c r="F134" s="29"/>
+      <c r="G134" s="29"/>
+      <c r="H134" s="29"/>
+      <c r="I134" s="29"/>
+      <c r="J134" s="29"/>
+      <c r="K134" s="29"/>
+      <c r="L134" s="29"/>
+      <c r="M134" s="29"/>
+      <c r="N134" s="29"/>
+      <c r="O134" s="29"/>
     </row>
     <row r="135" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B135" s="27"/>
-      <c r="C135" s="27"/>
-      <c r="D135" s="27"/>
-      <c r="E135" s="27"/>
-      <c r="F135" s="27"/>
-      <c r="G135" s="27"/>
-      <c r="H135" s="27"/>
-      <c r="I135" s="27"/>
-      <c r="J135" s="27"/>
-      <c r="K135" s="27"/>
-      <c r="L135" s="27"/>
-      <c r="M135" s="27"/>
-      <c r="N135" s="27"/>
-      <c r="O135" s="27"/>
+      <c r="B135" s="29"/>
+      <c r="C135" s="29"/>
+      <c r="D135" s="29"/>
+      <c r="E135" s="29"/>
+      <c r="F135" s="29"/>
+      <c r="G135" s="29"/>
+      <c r="H135" s="29"/>
+      <c r="I135" s="29"/>
+      <c r="J135" s="29"/>
+      <c r="K135" s="29"/>
+      <c r="L135" s="29"/>
+      <c r="M135" s="29"/>
+      <c r="N135" s="29"/>
+      <c r="O135" s="29"/>
     </row>
     <row r="136" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B136" s="27"/>
-      <c r="C136" s="27"/>
-      <c r="D136" s="27"/>
-      <c r="E136" s="27"/>
-      <c r="F136" s="27"/>
-      <c r="G136" s="27"/>
-      <c r="H136" s="27"/>
-      <c r="I136" s="27"/>
-      <c r="J136" s="27"/>
-      <c r="K136" s="27"/>
-      <c r="L136" s="27"/>
-      <c r="M136" s="27"/>
-      <c r="N136" s="27"/>
-      <c r="O136" s="27"/>
+      <c r="B136" s="29"/>
+      <c r="C136" s="29"/>
+      <c r="D136" s="29"/>
+      <c r="E136" s="29"/>
+      <c r="F136" s="29"/>
+      <c r="G136" s="29"/>
+      <c r="H136" s="29"/>
+      <c r="I136" s="29"/>
+      <c r="J136" s="29"/>
+      <c r="K136" s="29"/>
+      <c r="L136" s="29"/>
+      <c r="M136" s="29"/>
+      <c r="N136" s="29"/>
+      <c r="O136" s="29"/>
     </row>
     <row r="137" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B137" s="27"/>
-      <c r="C137" s="27"/>
-      <c r="D137" s="27"/>
-      <c r="E137" s="27"/>
-      <c r="F137" s="27"/>
-      <c r="G137" s="27"/>
-      <c r="H137" s="27"/>
-      <c r="I137" s="27"/>
-      <c r="J137" s="27"/>
-      <c r="K137" s="27"/>
-      <c r="L137" s="27"/>
-      <c r="M137" s="27"/>
-      <c r="N137" s="27"/>
-      <c r="O137" s="27"/>
+      <c r="B137" s="29"/>
+      <c r="C137" s="29"/>
+      <c r="D137" s="29"/>
+      <c r="E137" s="29"/>
+      <c r="F137" s="29"/>
+      <c r="G137" s="29"/>
+      <c r="H137" s="29"/>
+      <c r="I137" s="29"/>
+      <c r="J137" s="29"/>
+      <c r="K137" s="29"/>
+      <c r="L137" s="29"/>
+      <c r="M137" s="29"/>
+      <c r="N137" s="29"/>
+      <c r="O137" s="29"/>
     </row>
     <row r="140" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B140" s="5" t="s">
@@ -3908,12 +3905,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B20:O29"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B9:K9"/>
-    <mergeCell ref="B10:K10"/>
     <mergeCell ref="B109:O121"/>
     <mergeCell ref="B125:O137"/>
     <mergeCell ref="B33:O42"/>
@@ -3921,6 +3912,12 @@
     <mergeCell ref="B62:O72"/>
     <mergeCell ref="B76:O86"/>
     <mergeCell ref="B92:O105"/>
+    <mergeCell ref="B20:O29"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B10:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
